--- a/data/firebase-user-survey.xlsx
+++ b/data/firebase-user-survey.xlsx
@@ -204,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -218,6 +218,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -240,35 +247,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1082,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2">
         <v>24</v>
       </c>
